--- a/요구사항명세서/나만의 여행지도 요구사항 명세서.xlsx
+++ b/요구사항명세서/나만의 여행지도 요구사항 명세서.xlsx
@@ -4,13 +4,13 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="8760"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="시트1" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$2:$I$82</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$2:$I$73</x:definedName>
   </x:definedNames>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="1"/>
 </x:workbook>
@@ -43,13 +43,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="194">
-  <x:si>
-    <x:t>구현완료</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="186">
   <x:si>
     <x:t>해당 활동정보의 누적 신고 수가 N회를 넘어가면 자동으로 임시 블라인드 처리가 된다.
 - 트립매니저 or 트립파트너가 로그인했을 때 임시 블라인드처리된 게시글이 존재한다면 [게시글 관리] 메뉴 옆에 'Ｎ' 아이콘을 출력한다. 해당 아이콘은 트립매니저or트립파트너가 [게시글관리]메뉴를 클릭하면 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">다른 사람이 등록한 여행지를 가져오는 기능
+- </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t xml:space="preserve">무분별한 여행공유로 높은등급의 회원이 양산되는 경우를 막기위한 조치가 필요.
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">&lt;여행 공유 제한&gt;
+- 전체공개/회원공개/트립메이트 공개인 게시글만 공유가 가능하다.(비공개 게시글은 공유 불가능)
+- 여행공유는 하루에 1개, 활동공유는 하루 10개가 가능하다.
+&lt;공유된 정보 수정&gt;
+- 공유된 여행 정보는 공유받은 사용자가 수정/삭제할 수 있다.
+- 수정 불가능한 부분 : </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 여행장소 }, { 활동위치 }</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>게스트(비로그인 사용자)는 myspot을 공개 설정한 회원들의 여행지 정보를 열람한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">my spot에서 삭제한 활동정보들은 삭제 대기 리스트로 이동한다.
+- 삭제 대기 리스트는 한 페이지에 최대 10개의 활동정보가 표시된다. 이 이상의 활동정보는 페이지네이션 처리한다.
+- 삭제 대기 리스트에는 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 체크박스 }</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 여행제목, 여행날짜 }</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 와 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 활동제목 }</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, 을 출력하고, 해당 행을 클릭하면 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 활동위치(주소), 활동사진, 활동코멘트, 핀색깔(활동), 소속여행제목 }</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 을 추가로출력한다.
+- 체크박스에서 삭제할 여행정보를 선택 후 [영구삭제] 버튼을 누르면 [ 선택된 여행정보가 영구삭제 됩니다. 진행하시겠습니까? Y/N ] 안내창을 출력한다. Y를 누르면 영구삭제를 진행한다.
+- 만약 체크박스에 아무것도 체크하지 않고 [영구삭제] 버튼 클릭 시 [ 삭제할 정보를 선택하세요 ]를 출력한다.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>정보보관기간 안에 있는 탈퇴한 회원들의 정보를 보관하는 페이지.
+- 탈퇴한 회원들의 목록을 출력한다. { 탈퇴한회원아이디, 탈퇴날짜, 탈퇴당시등급 }
+- 회원아이디or이름or이메일로 검색이 가능하다.
+- 각 tr 우측에 [영구삭제] 버튼을 클릭하면 정보보관기간에 상관없이 회원을 즉시탈퇴시키고, 해당 회원이 작성했던 게시글과 댓글이 모두 한꺼번에 영구삭제된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제 대기 리스트에 있는 활동정보를 my spot으로 복구하는 기능
+- [복구] 버튼을 누르면 [ 선택된 여행/활동정보를 복구합니다. 진행하시겠습니까? Y/N ] 안내창을 출력한다. Y를 누르면 복구를 진행한다.
+- 활동정보가 복구될 때, 활동정보가 속해있던 여행정보가 my spot에 존재하지 않는 경우 해당 여행정보를 함께 복구하여 my spot에 출력해준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제 대기 리스트에 있는 정보를 영구적으로 삭제하는 기능
+- 체크박스에서 삭제할 활동정보를 선택 후 [영구삭제] 버튼을 누르면 [ 선택된 여행정보가 영구삭제 됩니다. 진행하시겠습니까? Y/N ] 안내창을 출력한다. Y를 누르면 영구삭제를 진행한다.
+- 만약 체크박스에 아무것도 체크하지 않고 [영구삭제] 버튼 클릭 시 [ 삭제할 정보를 선택하세요 ]를 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트립매니저 or 트립파트너는 임시블라인드 처리된 게시글을 대상으로 영구삭제/복구 설정이 가능하다.
+- 블라인드된 게시글 리스트 중 원하는 게시글을 선택하면 하단에 해당 활동정보게시글이 출력된다.
+- 해당 게시글을 확인한 후 영구삭제/복구 버튼으로 게시글을 처리한다.
+- 영구삭제 전 [해당 게시글을 영구삭제합니다. 진행하시겠습니까? Y/N ] 알림창을 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">여행정보를 등록한다
+- 등록내용 : </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 여행제목, 여행기간, 여행장소, 동행자명(여러명), 여행소개 }</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">를 입력하여 여행 정보를 입력한다.
+- 여행에 대한 핀색깔(여행)을 설정한다.
+- 여행에 대한 공개 범위(전체/회원/트립메이트/비공개)를 설정한다. </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t xml:space="preserve">이 때 </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+            <x:u/>
+            <hs:underlineShape val="solid"/>
+            <hs:underlineType val="1"/>
+            <hs:underlineColor rgb="ffff0000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+            <x:u/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>여행공개범위가 [회원기능-공개설정]의 공개설정 범위보다 넓은 경우</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t xml:space="preserve"> 등록한 여행공개범위에 상관없이 여행공개범위를 따라간다.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (활동공개범위는 따로 저장해뒀다가 여행공개범위가 활동공개범위보다 넓어지면 활동공개범위를 적용한다.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>가져오기 - 여행/활동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">회원은 본인의 my spot을 공개할 범위를 설정한다.
+- 모두에게 공개(기본값) : 게스트(비로그인 사용자)도 my spot 열람 가능
+- 회원에게만 공개
+- 트립메이트에게만 공개
+- 비공개
+</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="돋움"/>
+            <x:sz val="10"/>
+            <x:color rgb="ffff0000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>공개 설정되지 않은 대상이 my spot경로로 접근할 경우</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 해당 회원의 my spot 프로필과 사용자메뉴만 출력되고 내용 부분에는 공백과 잠금아이콘을 출력한다.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>핸드폰 본인인증 현재 구현 불가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능 - 공지사항 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능 - 추천 여행지 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 삭제 - 삭제 대기 리스트</x:t>
   </x:si>
   <x:si>
     <x:t>my spot메뉴
@@ -64,13 +381,16 @@
 - 트립메이트 제안, 수락, 삭제</x:t>
   </x:si>
   <x:si>
-    <x:t>게스트(비로그인 사용자)는 myspot을 공개 설정한 회원들의 여행지 정보를 열람한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">my spot에서 삭제한 활동정보들은 삭제 대기 리스트로 이동한다.
-- 삭제 대기 리스트는 한 페이지에 최대 10개의 활동정보가 표시된다. 이 이상의 활동정보는 페이지네이션 처리한다.
-- 삭제 대기 리스트에는 </x:t>
+    <x:t>&lt;여행 정보 삭제&gt;
+- 삭제 전 ['삭제하시겠습니까?'  확인/취소] 안내창을 출력한다.
+- 선택한 여행정보와 해당 여행정보에 등록된 활동들도 모두 함께 삭제된다.
+- 여행 정보 안에 들어있는 활동정보가 삭제 대기 리스트에 남아있는 공간보다 적을 경우 ['삭제 리스트의 공간이 부족합니다. 영구삭제 하시겠습니까?(복구불가능) Y/N ] 안내창을 출력한다. Y 선택시 선택된 여행정보와 관련된 활동정보를 영구삭제한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">각 회원들이 지불한 유료서비스 대한 수익을 열람하는 페이지
+ * 결제 내역이 없는 회원일 경우 '결제 내역이 없습니다' 페이지 출력
+- 결제 내역이 있는 회원일 경우 </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -79,7 +399,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>{ 체크박스 }</x:t>
+      <x:t>{ 회원아이디, 회원등급, 멤버십여부, 최근결제일 }</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -87,7 +407,9 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">, </x:t>
+      <x:t xml:space="preserve"> 의 가로 테이블을 body 상단에 출력
+- 멤버십여부 td에는 '남은 멤버십 날짜 : 00일' 을 표기
+- 결제내역 테이블에는</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -96,7 +418,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>{ 여행제목, 여행날짜 }</x:t>
+      <x:t xml:space="preserve"> { 유료서비스명, 결제금액, 결제날짜, 결제취소버튼 } </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -104,117 +426,8 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 와 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>{ 활동제목 }</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, 을 출력하고, 해당 행을 클릭하면 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>{ 활동위치(주소), 활동사진, 활동코멘트, 핀색깔(활동), 소속여행제목 }</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 을 추가로출력한다.
-- 체크박스에서 삭제할 여행정보를 선택 후 [영구삭제] 버튼을 누르면 [ 선택된 여행정보가 영구삭제 됩니다. 진행하시겠습니까? Y/N ] 안내창을 출력한다. Y를 누르면 영구삭제를 진행한다.
-- 만약 체크박스에 아무것도 체크하지 않고 [영구삭제] 버튼 클릭 시 [ 삭제할 정보를 선택하세요 ]를 출력한다.</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>삭제 대기 리스트에 있는 활동정보를 my spot으로 복구하는 기능
-- [복구] 버튼을 누르면 [ 선택된 여행/활동정보를 복구합니다. 진행하시겠습니까? Y/N ] 안내창을 출력한다. Y를 누르면 복구를 진행한다.
-- 활동정보가 복구될 때, 활동정보가 속해있던 여행정보가 my spot에 존재하지 않는 경우 해당 여행정보를 함께 복구하여 my spot에 출력해준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제 대기 리스트에 있는 정보를 영구적으로 삭제하는 기능
-- 체크박스에서 삭제할 활동정보를 선택 후 [영구삭제] 버튼을 누르면 [ 선택된 여행정보가 영구삭제 됩니다. 진행하시겠습니까? Y/N ] 안내창을 출력한다. Y를 누르면 영구삭제를 진행한다.
-- 만약 체크박스에 아무것도 체크하지 않고 [영구삭제] 버튼 클릭 시 [ 삭제할 정보를 선택하세요 ]를 출력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립매니저 or 트립파트너는 임시블라인드 처리된 게시글을 대상으로 영구삭제/복구 설정이 가능하다.
-- 블라인드된 게시글 리스트 중 원하는 게시글을 선택하면 하단에 해당 활동정보게시글이 출력된다.
-- 해당 게시글을 확인한 후 영구삭제/복구 버튼으로 게시글을 처리한다.
-- 영구삭제 전 [해당 게시글을 영구삭제합니다. 진행하시겠습니까? Y/N ] 알림창을 출력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보보관기간 안에 있는 탈퇴한 회원들의 정보를 보관하는 페이지.
-- 탈퇴한 회원들의 목록을 출력한다. { 탈퇴한회원아이디, 탈퇴날짜, 탈퇴당시등급 }
-- 회원아이디or이름or이메일로 검색이 가능하다.
-- 각 tr 우측에 [영구삭제] 버튼을 클릭하면 정보보관기간에 상관없이 회원을 즉시탈퇴시키고, 해당 회원이 작성했던 게시글과 댓글이 모두 한꺼번에 영구삭제된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 회원가입 이후 다음의 기능들을 사용할 수 있다.
-- 여행지 좋아요 추가 기능
-- 트립 메이트 신청/수락
-- 나의 여행지 등록
-- 회원 정보 : 인삿말 추가
-- 닉네임 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">여행지 영구삭제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립메이트 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립메이트 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 즐겨찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립메이트 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립메이트 수락</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my spot 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원등급 : { 트립파트너, 트립서포터, 트립마스터, 트립시니어, 트립주니어, 트립비기너 }
-- 트립비기너 : 여행등록 0개이상 or 활동등록 0개 이상, 출석 0회 이상
-- 트립주니어 : 여행등록 10개이상 or 활동등록 20개 이상, 출석 10회 이상
-- 트립시니어 : 여행등록 50개이상 or 활동등록 100개 이상, 출석 20회 이상
-- 트립마스터 : 여행등록 100개이상 or 활동등록 200개 이상, 출석 50회 이상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;여행 정보 삭제&gt;
-- 삭제 전 ['삭제하시겠습니까?'  확인/취소] 안내창을 출력한다.
-- 선택한 여행정보와 해당 여행정보에 등록된 활동들도 모두 함께 삭제된다.
-- 여행 정보 안에 들어있는 활동정보가 삭제 대기 리스트에 남아있는 공간보다 적을 경우 ['삭제 리스트의 공간이 부족합니다. 영구삭제 하시겠습니까?(복구불가능) Y/N ] 안내창을 출력한다. Y 선택시 선택된 여행정보와 관련된 활동정보를 영구삭제한다.</x:t>
+      <x:t>을 출력한다.</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -286,95 +499,18 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>회원 탈퇴시 회원이 등록한 게시글, 댓글의 아이디를 [탈퇴한회원]으로 변경한다.
-탈퇴한 회원이 게시글, 댓글까지 삭제되는걸 원할 시 관리자에게 문의해야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구현중
-로그인시 기본사용자메뉴 자동등록(구현완료)
-사용자 설정 메뉴 최대 5개 등록(미구현)
-메뉴바의 메뉴 클릭시 여행정보 출력(구현완료)
-나머지 미구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인(사용자/카카오톡연동)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지 테마 색 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 삭제 - 활동정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 기능 - 공개설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능 - 회원권한설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 확인 - map</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능 - 이벤트 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 기능 - 신고 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 공유 - 여행/활동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 삭제 - 여행정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 수정 - 여행정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 수정 - 활동정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my spot 프로필 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행 게시글 결제(구매)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 등록 - 여행등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 등록 - 활동등록</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">회원은 본인의 my spot을 공개할 범위를 설정한다.
-- 모두에게 공개(기본값) : 게스트(비로그인 사용자)도 my spot 열람 가능
-- 회원에게만 공개
-- 트립메이트에게만 공개
-- 비공개
-</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>공개 설정되지 않은 대상이 my spot경로로 접근할 경우</x:t>
+    <x:r>
+      <x:t xml:space="preserve">&lt;여행 정보 수정&gt;
+- </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>{ 여행제목, 동행자, 핀색깔(여행), 소속사용자메뉴 }</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -382,8 +518,97 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 해당 회원의 my spot 프로필과 사용자메뉴만 출력되고 내용 부분에는 공백과 잠금아이콘을 출력한다.</x:t>
-    </x:r>
+      <x:t>에 대한 정보를 수정한다.
+- 여행장소와 여행날짜는 수정할 수 없다. 수정하려면 삭제 후 재등록이 필요하다.
+- 필요에 따라서 소속된사용자메뉴를 변경한다.(ex. 친구 -&gt; 가족, 여행예정 -&gt; 데이트)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능 - 회원권한설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 삭제 - 활동정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지 테마 색 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인(사용자/카카오톡연동)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 기능 - 공개설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 수정 - 여행정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능 - 이벤트 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my spot 프로필 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행 게시글 결제(구매)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 수정 - 활동정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 삭제 - 여행정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 등록 - 여행등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 등록 - 활동등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 기능 - 신고 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 확인 - map</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부적절한 활동정보게시글에 대해 [신고] 버튼을 눌러 게시글 신고를 진행한다.
+- 회원 계정 한 게시글에 1회 신고가 가능하며, 하루 신고 수는 최대 10번이다.
+- 본인이 작성한 게시글에 대한 신고는 할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 계정을 찾는 기능
+- 회원 가입시 입력한 정보를 바탕으로 회원계정을 찾는다.
+- 아이디 찾기 : 가입시 진행했던 회원 이름과 핸드폰번호로 아이디 찾기를 진행한다. (SMS 인증, PASS인증)
+- 비밀번호 찾기 : 회원아이디를 입력하고 가입되어있는 회원정보이면 회원 정보에 등록된 핸드폰번호로 SMS인증, PASS 인증을 진행한다. 이후 가입된 이메일로 임시비밀번호를 발송한다.
+- 카카오톡 연동을 진행한 회원의 경우 카카오톡 로그인으로 계정을 찾을 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅎ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겟</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면명</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -419,12 +644,38 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>회원은 본인의 필요에 따라 여행을 등록, 확인, 수정, 삭제 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">&lt;여행 정보 수정&gt;
-- </x:t>
+    <x:t>하</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 인증 방식으로 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지의 테마 색을 원하는 색상 팔레트로 변경할 수 있다.
+참고) loawa.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원들은 다른 회원에게 트립메이트를 신청하고, 수락하고, 거절하는 기능을 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;map 메뉴&gt;
+- 지도에 회원이 설정한 색깔이 적용된 활동 핀이 표시된다.
+- 활동 핀은 기본적으로 핀색깔(여행)을 따라가지만, 활동 등록 시 사용자가 핀색깔(활동)을 따로 지정하면 그 색을 따른다.
+- 활동 핀에 마우스를 hover 중이면 { 활동제목, 대표사진(없으면 default 이미지 출력), 코멘트(최대 nn자. 그 이상은 ... 처리) }를 box에 출력하고, 마우스 hover를 해제하면 box를 해제한다.
+- 활동 핀을 클릭하면 list 메뉴에서 여행제목 - 활동정보 를 클릭한 것과 같은 화면을 로딩하여 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;활동 정보 삭제&gt;
+- 선택한 활동 정보를 삭제한다.
+- 삭제한 활동 정보는 my spot에서 더이상 출력되지 않고 삭제 대기 리스트로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 트립메이트 관계를 해제하는 기능
+- 회원이 트립메이트를 해제하면(트립메이트 리스트에서 삭제하면) 상대방의 트립메이트에서도 회원이 삭제된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">유료 여행 게시글에 대한 수익을 관리하는 페이지
+ - </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -433,18 +684,19 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>{ 여행제목, 동행자, 핀색깔(여행), 소속사용자메뉴 }</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>에 대한 정보를 수정한다.
-- 여행장소와 여행날짜는 수정할 수 없다. 수정하려면 삭제 후 재등록이 필요하다.
-- 필요에 따라서 소속된사용자메뉴를 변경한다.(ex. 친구 -&gt; 가족, 여행예정 -&gt; 데이트)</x:t>
-    </x:r>
+      <x:t>{ 결제대상게시글, 결제회원, 결제금액(멤버십인경우 'membership' 표기), 결제날짜 }</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>회원 본인 이외의 다른 회원에게 트립메이트를 신청하는 기능
+- 트립메이트로 설정되지 않은 회원의 my spot 페이지에 접근하면 그 회원의 프로필 하단에[트립메이트 제안] 버튼이 출력된다. 해당 버튼을 클릭하면 프로필의 회원에게로의 트립메이트 신청이 진행되고, [트립메이트 제안]버튼은 [제안 취소] 버튼으로 바뀐다.
+- [제안 취소]버튼을 클릭하면 상대 회원의 트립메이트 신청 페이지에서 나의 신청이 삭제된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원이 본인의 여행/활동에 즐겨찾기 표시를 남기는 기능
+- 여행/활동 게시글 우측상단과 게시글 목록 우측에 별모양 아이콘을 출력한다.
+- 즐겨찾기등록을 한 경우에는 별이 노랗게 빛나고, 즐겨찾기 등록을 하지 않았거나 해제한 경우에는 회색 아이콘으로 출력한다.
+- my spot을 열람 가능한 다른 회원이 게시글 상세정보 or 게시글 목록 페이지에 접근할 때, 게시글들에 내 즐겨찾기 표시가 반영되어 출력된다.</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -620,38 +872,26 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>겟</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅎ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구현중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립매니저 or 트립파트너가 추천 여행 정보를 가이드형식으로 작성하여 게시한다.
-- 게시글 등록 전 무료 게시글과 유료 게시글을 선택한다. 무료 게시글 선택 시 누구나 열람가능한 게시글이 되지만, 유료 게시글 선택 시 초반 소개글 이후의 내용은 게시글을 구매한 회원만 열람가능한 게시글이 된다.</x:t>
+    <x:t>사용자는 회원가입 이후 다음의 기능들을 사용할 수 있다.
+- 여행지 좋아요 추가 기능
+- 트립 메이트 신청/수락
+- 나의 여행지 등록
+- 회원 정보 : 인삿말 추가
+- 닉네임 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오톡 연동을 완료한 사용자에 한해 카카오톡을 통해 간편하게 로그인하는 방법을 선택할 수 있도록 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원은 my spot에 등록한 여행정보와 활동 정보에 대한 수정을 진행한다.
+- 수정 페이지 진입 시 기존에 등록되어있던 정보들을 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my spot 페이지에서 로그인한 회원에게 들어온 트립메이트 제안 리스트를 출력한다.
+- 들어온 트립메이트 제안을 수락 / 거절할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원은 my spot - map 메뉴나 my spot - list 메뉴에서 본인이 등록한 여행들의 정보를 확인한다.</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -680,175 +920,8 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>회원 계정을 찾는 기능
-- 회원 가입시 입력한 정보를 바탕으로 회원계정을 찾는다.
-- 아이디 찾기 : 가입시 진행했던 회원 이름과 핸드폰번호로 아이디 찾기를 진행한다. (SMS 인증, PASS인증)
-- 비밀번호 찾기 : 회원아이디를 입력하고 가입되어있는 회원정보이면 회원 정보에 등록된 핸드폰번호로 SMS인증, PASS 인증을 진행한다. 이후 가입된 이메일로 임시비밀번호를 발송한다.
-- 카카오톡 연동을 진행한 회원의 경우 카카오톡 로그인으로 계정을 찾을 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">본인이 등록한 여행지를 트립메이트와 공유하는 기능
-- </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">무분별한 여행공유로 높은등급의 회원이 양산되는 경우를 막기위한 조치가 필요.
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">&lt;여행 공유 제한&gt;
-- 전체공개/회원공개/트립메이트 공개인 게시글만 공유가 가능하다.(비공개 게시글은 공유 불가능)
-- 여행공유는 하루에 1개, 활동공유는 하루 10개가 가능하다.
-&lt;공유된 정보 수정&gt;
-- 공유된 여행 정보는 공유받은 사용자가 수정/삭제할 수 있다.
-- 수정 불가능한 부분 : </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>{ 여행장소 }, { 활동위치 }</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">여행정보를 등록한다
-- 등록내용 : </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>{ 여행제목, 여행기간, 여행장소, 동행자명(여러명), 여행소개 }</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">를 입력하여 여행 정보를 입력한다.
-- 여행에 대한 핀색깔(여행)을 설정한다.
-- 여행에 대한 공개 범위(전체/회원/트립메이트/비공개)를 설정한다. </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">이 때 </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-            <x:u/>
-            <hs:underlineShape val="solid"/>
-            <hs:underlineType val="1"/>
-            <hs:underlineColor rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-            <x:u/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>여행공개범위가 [회원기능-공개설정]의 공개설정 범위보다 넓은 경우</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="돋움"/>
-            <x:sz val="10"/>
-            <x:color rgb="ffff0000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> 등록한 여행공개범위에 상관없이 여행공개범위를 따라간다.</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (활동공개범위는 따로 저장해뒀다가 여행공개범위가 활동공개범위보다 넓어지면 활동공개범위를 적용한다.)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>부적절한 활동정보게시글에 대해 [신고] 버튼을 눌러 게시글 신고를 진행한다.
-- 회원 계정 한 게시글에 1회 신고가 가능하며, 하루 신고 수는 최대 10번이다.
-- 본인이 작성한 게시글에 대한 신고는 할 수 없다.</x:t>
+    <x:t>트립매니저 or 트립파트너가 추천 여행 정보를 가이드형식으로 작성하여 게시한다.
+- 게시글 등록 전 무료 게시글과 유료 게시글을 선택한다. 무료 게시글 선택 시 누구나 열람가능한 게시글이 되지만, 유료 게시글 선택 시 초반 소개글 이후의 내용은 게시글을 구매한 회원만 열람가능한 게시글이 된다.</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -864,72 +937,6 @@
       </x:rPr>
       <x:t>{ 비밀번호, 핸드폰번호, 본인확인용이메일 }</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:t>미구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원은 트립매니저 or 트립파트너가 작성한 추천 여행 정보 중 결제가 필요한 게시글을 결제한다.
-- 게시글 결제 시 결제한 게시글이 어느 사용자 메뉴로 삽입될 것인지 선택해야한다.
-- 이외의 기능은 트립메이트에게 공유받을 때와 동일하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원은 my spot - map 메뉴나 my spot - list 메뉴에서 본인이 등록한 여행들의 정보를 확인한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지의 테마 색을 원하는 색상 팔레트로 변경할 수 있다.
-참고) loawa.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원들은 다른 회원에게 트립메이트를 신청하고, 수락하고, 거절하는 기능을 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;map 메뉴&gt;
-- 지도에 회원이 설정한 색깔이 적용된 활동 핀이 표시된다.
-- 활동 핀은 기본적으로 핀색깔(여행)을 따라가지만, 활동 등록 시 사용자가 핀색깔(활동)을 따로 지정하면 그 색을 따른다.
-- 활동 핀에 마우스를 hover 중이면 { 활동제목, 대표사진(없으면 default 이미지 출력), 코멘트(최대 nn자. 그 이상은 ... 처리) }를 box에 출력하고, 마우스 hover를 해제하면 box를 해제한다.
-- 활동 핀을 클릭하면 list 메뉴에서 여행제목 - 활동정보 를 클릭한 것과 같은 화면을 로딩하여 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸드폰 본인인증 현재 구현 불가
-이메일 본인확인 미구현
-아아디중복체크 미구현
-카카오톡 연동 미구현</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">유료 여행 게시글에 대한 수익을 관리하는 페이지
- - </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>{ 결제대상게시글, 결제회원, 결제금액(멤버십인경우 'membership' 표기), 결제날짜 }</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>등록된 트립메이트 관계를 해제하는 기능
-- 회원이 트립메이트를 해제하면(트립메이트 리스트에서 삭제하면) 상대방의 트립메이트에서도 회원이 삭제된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;활동 정보 삭제&gt;
-- 선택한 활동 정보를 삭제한다.
-- 삭제한 활동 정보는 my spot에서 더이상 출력되지 않고 삭제 대기 리스트로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 본인 이외의 다른 회원에게 트립메이트를 신청하는 기능
-- 트립메이트로 설정되지 않은 회원의 my spot 페이지에 접근하면 그 회원의 프로필 하단에[트립메이트 제안] 버튼이 출력된다. 해당 버튼을 클릭하면 프로필의 회원에게로의 트립메이트 신청이 진행되고, [트립메이트 제안]버튼은 [제안 취소] 버튼으로 바뀐다.
-- [제안 취소]버튼을 클릭하면 상대 회원의 트립메이트 신청 페이지에서 나의 신청이 삭제된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원이 본인의 여행/활동에 즐겨찾기 표시를 남기는 기능
-- 여행/활동 게시글 우측상단과 게시글 목록 우측에 별모양 아이콘을 출력한다.
-- 즐겨찾기등록을 한 경우에는 별이 노랗게 빛나고, 즐겨찾기 등록을 하지 않았거나 해제한 경우에는 회색 아이콘으로 출력한다.
-- my spot을 열람 가능한 다른 회원이 게시글 상세정보 or 게시글 목록 페이지에 접근할 때, 게시글들에 내 즐겨찾기 표시가 반영되어 출력된다.</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -958,29 +965,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>여행지 삭제 - 삭제 대기 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능 - 공지사항 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능 - 추천 여행지 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my spot 페이지에서 로그인한 회원에게 들어온 트립메이트 제안 리스트를 출력한다.
-- 들어온 트립메이트 제안을 수락 / 거절할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원은 my spot에 등록한 여행정보와 활동 정보에 대한 수정을 진행한다.
-- 수정 페이지 진입 시 기존에 등록되어있던 정보들을 출력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립매니저 or 트립파트너는 이벤트 게시판에 이벤트 게시글을 작성한다.
-- 관리자는 게시글 작성/수정 시 해당 게시글에 신청 댓글을 작성할 수 있는 회원 등급을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트립매니저 or 트립파트너는 공지사항 게시글을 작성한다.
-- 트립매니저 or 트립파트너가 게시글 작성페이지로 진입하면 셀렉트박스의 기본값이 '공지사항'으로 설정된다.</x:t>
+    <x:t>회원은 트립매니저 or 트립파트너가 작성한 추천 여행 정보 중 결제가 필요한 게시글을 결제한다.
+- 게시글 결제 시 결제한 게시글이 어느 사용자 메뉴로 삽입될 것인지 선택해야한다.
+- 이외의 기능은 트립메이트에게 공유받을 때와 동일하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 탈퇴시 회원이 등록한 게시글, 댓글의 아이디를 [탈퇴한회원]으로 변경한다.
+탈퇴한 회원이 게시글, 댓글까지 삭제되는걸 원할 시 관리자에게 문의해야한다.</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -998,12 +989,15 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>카카오톡 연동을 완료한 사용자에 한해 카카오톡을 통해 간편하게 로그인하는 방법을 선택할 수 있도록 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원은 my spot에 등록한 여행정보와 활동 정보에 대한 삭제를 진행한다.
-- 삭제된 정보들은 삭제 대기리스트에서 일정 시간(7일) 복구 대기 기간을 거친 후 영구삭제된다.
-- 삭제 대기 리스트는 활동정보 개수로 카운트되며, 최대 20개까지 삽입이 가능하다. 삭제 대기 리스트가 20개이상이 되면 가장 오래된 활동정보부터 영구삭제된다.</x:t>
+    <x:t>트립매니저 or 트립파트너는 공지사항 게시글을 작성한다.
+- 트립매니저 or 트립파트너가 게시글 작성페이지로 진입하면 셀렉트박스의 기본값이 '공지사항'으로 설정된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트립매니저 or 트립파트너는 이벤트 게시판에 이벤트 게시글을 작성한다.
+- 관리자는 게시글 작성/수정 시 해당 게시글에 신청 댓글을 작성할 수 있는 회원 등급을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원은 본인의 필요에 따라 여행을 등록, 확인, 수정, 삭제 한다.</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1032,371 +1026,16 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">각 회원들이 지불한 유료서비스 대한 수익을 열람하는 페이지
- * 결제 내역이 없는 회원일 경우 '결제 내역이 없습니다' 페이지 출력
-- 결제 내역이 있는 회원일 경우 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>{ 회원아이디, 회원등급, 멤버십여부, 최근결제일 }</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 의 가로 테이블을 body 상단에 출력
-- 멤버십여부 td에는 '남은 멤버십 날짜 : 00일' 을 표기
-- 결제내역 테이블에는</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> { 유료서비스명, 결제금액, 결제날짜, 결제취소버튼 } </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>을 출력한다.</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>회원은 본인의 아이디/비밀번호를 입력하여 로그인 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행정보/활동정보 - 게시글 관리
-임시 블라인드 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능
-- 여행 게시글 결제 수익 관리 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능 - 게시글 관리
-여행/활동정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 확인 - list
-(사용자 설정 메뉴)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my spot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 복구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RQ-0057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게스트 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멤버십 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구현중
-핀색깔(여행) 미구현
-여행에 대한 공개범위 설정 구현 완료
-상위 공개범위에 따른 출력제한 구현중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능
-- 회원 결제 관리 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 기능
-- 탈퇴한 회원 게시글 관리</x:t>
+    <x:t>회원은 my spot에 등록한 여행정보와 활동 정보에 대한 삭제를 진행한다.
+- 삭제된 정보들은 삭제 대기리스트에서 일정 시간(7일) 복구 대기 기간을 거친 후 영구삭제된다.
+- 삭제 대기 리스트는 활동정보 개수로 카운트되며, 최대 20개까지 삽입이 가능하다. 삭제 대기 리스트가 20개이상이 되면 가장 오래된 활동정보부터 영구삭제된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원등급 : { 트립파트너, 트립서포터, 트립마스터, 트립시니어, 트립주니어, 트립비기너 }
+- 트립비기너 : 여행등록 0개이상 or 활동등록 0개 이상, 출석 0회 이상
+- 트립주니어 : 여행등록 10개이상 or 활동등록 20개 이상, 출석 10회 이상
+- 트립시니어 : 여행등록 50개이상 or 활동등록 100개 이상, 출석 20회 이상
+- 트립마스터 : 여행등록 100개이상 or 활동등록 200개 이상, 출석 50회 이상</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">&lt;list 메뉴&gt;
@@ -1411,6 +1050,333 @@
 - 다른 여행제목을 클릭하면 기존에 클릭해서 활성화되어있던 활동정보들을 숨기고 최근 클릭한 여행정보의 활동정보들을 출력한다.
 - 제목의 우측에 표시되는 사진은 사용자가 해당 여행에 대해 등록한 사진 중 가장 처음 등록한 사진을 대표 사진으로 설정한다. 이 때 사용자가 다른 대표사진을 등록하고 싶으면 [대표사진변경] 버튼을 통해 대표사진을 변경할 수 있다.(네이버 포스트 대표사진 설정 참고)
 - 등록된 여행 게시글을 클릭하면 해당 게시글의 제목 하단에 활동명이 표시된다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">여행지 영구삭제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>my spot 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트립메이트 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트립메이트 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 즐겨찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트립메이트 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트립메이트 수락</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능
+- 여행 게시글 결제 수익 관리 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원은 본인의 아이디/비밀번호를 입력하여 로그인 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행정보/활동정보 - 게시글 관리
+임시 블라인드 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능 - 게시글 관리
+여행/활동정보 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 확인 - list
+(사용자 설정 메뉴)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구현완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my spot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게스트 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 복구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멤버십 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RQ-0058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능
+- 회원 결제 관리 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 기능
+- 탈퇴한 회원 게시글 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선순위</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1932,9 +1898,6 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
@@ -1991,6 +1954,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -2742,10 +2718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1" filterMode="1"/>
-  <x:dimension ref="A1:J91"/>
+  <x:dimension ref="A1:J82"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H11" activeCellId="0" sqref="H11:H11"/>
+    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="M81" activeCellId="0" sqref="M81:M81"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2755,7 +2731,7 @@
     <x:col min="3" max="3" width="14.7109375" style="22" customWidth="1"/>
     <x:col min="4" max="4" width="31.140625" style="25" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="83.28515625" style="27" customWidth="1"/>
-    <x:col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <x:col min="6" max="6" width="14.85546875" hidden="1" customWidth="1"/>
     <x:col min="7" max="7" width="22.28515625" customWidth="1"/>
     <x:col min="8" max="8" width="40.140625" customWidth="1"/>
     <x:col min="9" max="9" width="9.28515625" customWidth="1"/>
@@ -2780,88 +2756,96 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D2" s="14" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E2" s="29" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E2" s="39" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="F2" s="14" t="s">
-        <x:v>51</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G2" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H2" s="14" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I2" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J2" s="3"/>
     </x:row>
-    <x:row r="3" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
+    <x:row r="3" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
       <x:c r="A3" s="15"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>139</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>179</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="30" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E3" s="29" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F3" s="16"/>
-      <x:c r="G3" s="9"/>
-      <x:c r="H3" s="38" t="s">
-        <x:v>69</x:v>
+      <x:c r="G3" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H3" s="37" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I3" s="9"/>
       <x:c r="J3" s="5"/>
     </x:row>
     <x:row r="4" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
       <x:c r="A4" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C4" s="9"/>
       <x:c r="D4" s="15" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E4" s="33" t="s">
-        <x:v>9</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E4" s="32" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F4" s="16"/>
-      <x:c r="G4" s="9"/>
-      <x:c r="H4" s="9"/>
+      <x:c r="G4" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H4" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I4" s="10"/>
       <x:c r="J4" s="7"/>
     </x:row>
     <x:row r="5" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A5" s="15"/>
       <x:c r="B5" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="9" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E5" s="31" t="s">
-        <x:v>88</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E5" s="30" t="s">
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F5" s="16"/>
-      <x:c r="G5" s="9"/>
+      <x:c r="G5" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H5" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I5" s="9"/>
       <x:c r="J5" s="5"/>
@@ -2869,19 +2853,21 @@
     <x:row r="6" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
       <x:c r="A6" s="15"/>
       <x:c r="B6" s="10" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E6" s="32" t="s">
-        <x:v>84</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E6" s="31" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F6" s="16"/>
-      <x:c r="G6" s="9"/>
+      <x:c r="G6" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="H6" s="9"/>
       <x:c r="I6" s="9"/>
       <x:c r="J6" s="5"/>
@@ -2889,57 +2875,67 @@
     <x:row r="7" spans="1:10" s="6" customFormat="1" ht="85.849999999999994">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>182</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E7" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E7" s="31" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F7" s="16"/>
-      <x:c r="G7" s="9"/>
-      <x:c r="H7" s="9"/>
+      <x:c r="G7" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H7" s="9" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="I7" s="10"/>
       <x:c r="J7" s="7"/>
     </x:row>
     <x:row r="8" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
       <x:c r="A8" s="15"/>
       <x:c r="B8" s="10" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>189</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E8" s="32" t="s">
-        <x:v>62</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E8" s="31" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F8" s="16"/>
-      <x:c r="G8" s="9"/>
-      <x:c r="H8" s="9"/>
+      <x:c r="G8" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H8" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I8" s="9"/>
       <x:c r="J8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
       <x:c r="A9" s="15"/>
       <x:c r="B9" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C9" s="10"/>
       <x:c r="D9" s="10" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="E9" s="32" t="s">
-        <x:v>23</x:v>
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E9" s="31" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F9" s="16"/>
-      <x:c r="G9" s="9"/>
+      <x:c r="G9" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H9" s="9"/>
       <x:c r="I9" s="9"/>
       <x:c r="J9" s="5"/>
@@ -2947,19 +2943,21 @@
     <x:row r="10" spans="1:10" s="6" customFormat="1" ht="85.849999999999994">
       <x:c r="A10" s="15"/>
       <x:c r="B10" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="9" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="E10" s="30" t="s">
-        <x:v>86</x:v>
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E10" s="29" t="s">
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F10" s="16"/>
-      <x:c r="G10" s="9"/>
+      <x:c r="G10" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H10" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="5"/>
@@ -2967,19 +2965,21 @@
     <x:row r="11" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A11" s="15"/>
       <x:c r="B11" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C11" s="9"/>
       <x:c r="D11" s="9" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E11" s="32" t="s">
-        <x:v>3</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E11" s="31" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F11" s="16"/>
-      <x:c r="G11" s="9"/>
+      <x:c r="G11" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H11" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I11" s="9"/>
       <x:c r="J11" s="5"/>
@@ -2987,59 +2987,65 @@
     <x:row r="12" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="10" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C12" s="9"/>
       <x:c r="D12" s="10" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E12" s="30" t="s">
-        <x:v>43</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E12" s="29" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F12" s="16"/>
-      <x:c r="G12" s="9"/>
-      <x:c r="H12" s="9"/>
+      <x:c r="G12" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H12" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="7"/>
     </x:row>
     <x:row r="13" spans="1:10" s="6" customFormat="1" ht="98.099999999999994">
       <x:c r="A13" s="15"/>
       <x:c r="B13" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D13" s="15" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E13" s="33" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E13" s="32" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="16"/>
-      <x:c r="G13" s="9"/>
-      <x:c r="H13" s="9" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="G13" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H13" s="9"/>
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="5"/>
     </x:row>
     <x:row r="14" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A14" s="15"/>
       <x:c r="B14" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D14" s="9" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E14" s="30" t="s">
-        <x:v>61</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E14" s="29" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="16"/>
-      <x:c r="G14" s="9"/>
+      <x:c r="G14" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="H14" s="9"/>
       <x:c r="I14" s="10"/>
       <x:c r="J14" s="5"/>
@@ -3047,61 +3053,71 @@
     <x:row r="15" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A15" s="15"/>
       <x:c r="B15" s="9" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C15" s="26" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="C15" s="26" t="s">
-        <x:v>152</x:v>
-      </x:c>
       <x:c r="D15" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E15" s="30" t="s">
-        <x:v>42</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E15" s="29" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F15" s="16"/>
-      <x:c r="G15" s="9"/>
-      <x:c r="H15" s="9"/>
+      <x:c r="G15" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H15" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I15" s="9"/>
       <x:c r="J15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:10" s="6" customFormat="1" ht="134.90000000000001">
       <x:c r="A16" s="15"/>
       <x:c r="B16" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D16" s="9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E16" s="30" t="s">
-        <x:v>2</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E16" s="29" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="16"/>
-      <x:c r="G16" s="9"/>
-      <x:c r="H16" s="9"/>
+      <x:c r="G16" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H16" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I16" s="9"/>
       <x:c r="J16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:10" s="6" customFormat="1" ht="98.099999999999994">
       <x:c r="A17" s="17"/>
       <x:c r="B17" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D17" s="9" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E17" s="33" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E17" s="32" t="s">
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F17" s="16"/>
-      <x:c r="G17" s="9"/>
-      <x:c r="H17" s="38" t="s">
-        <x:v>190</x:v>
+      <x:c r="G17" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H17" s="37" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I17" s="10"/>
       <x:c r="J17" s="7"/>
@@ -3109,61 +3125,71 @@
     <x:row r="18" spans="1:10" s="6" customFormat="1" ht="110.34999999999999">
       <x:c r="A18" s="15"/>
       <x:c r="B18" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C18" s="26" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D18" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E18" s="33" t="s">
-        <x:v>45</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E18" s="32" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F18" s="16"/>
-      <x:c r="G18" s="9"/>
-      <x:c r="H18" s="9"/>
+      <x:c r="G18" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H18" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A19" s="15"/>
       <x:c r="B19" s="9" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D19" s="9" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="E19" s="30" t="s">
-        <x:v>65</x:v>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E19" s="29" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F19" s="16"/>
-      <x:c r="G19" s="9"/>
-      <x:c r="H19" s="9"/>
+      <x:c r="G19" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H19" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I19" s="9"/>
       <x:c r="J19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:10" s="6" customFormat="1" ht="220.69999999999999">
       <x:c r="A20" s="15"/>
       <x:c r="B20" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C20" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D20" s="26" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E20" s="30" t="s">
-        <x:v>193</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E20" s="29" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F20" s="16"/>
-      <x:c r="G20" s="9"/>
-      <x:c r="H20" s="39" t="s">
-        <x:v>24</x:v>
+      <x:c r="G20" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H20" s="38" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I20" s="9"/>
       <x:c r="J20" s="5"/>
@@ -3171,21 +3197,23 @@
     <x:row r="21" spans="1:10" s="6" customFormat="1" ht="98.099999999999994">
       <x:c r="A21" s="15"/>
       <x:c r="B21" s="9" t="s">
-        <x:v>129</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C21" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D21" s="9" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E21" s="30" t="s">
-        <x:v>68</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E21" s="29" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F21" s="16"/>
-      <x:c r="G21" s="9"/>
+      <x:c r="G21" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H21" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I21" s="9"/>
       <x:c r="J21" s="5"/>
@@ -3193,45 +3221,49 @@
     <x:row r="22" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
       <x:c r="A22" s="15"/>
       <x:c r="B22" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C22" s="9" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D22" s="9" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="E22" s="30" t="s">
-        <x:v>80</x:v>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E22" s="29" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F22" s="16"/>
-      <x:c r="G22" s="9"/>
+      <x:c r="G22" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H22" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I22" s="9"/>
       <x:c r="J22" s="5"/>
     </x:row>
     <x:row r="23" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
       <x:c r="A23" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B23" s="9" t="s">
-        <x:v>156</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C23" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D23" s="9" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E23" s="30" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E23" s="29" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F23" s="16"/>
-      <x:c r="G23" s="9"/>
+      <x:c r="G23" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H23" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I23" s="10"/>
       <x:c r="J23" s="7"/>
@@ -3239,39 +3271,43 @@
     <x:row r="24" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
       <x:c r="A24" s="15"/>
       <x:c r="B24" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C24" s="26"/>
       <x:c r="D24" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E24" s="32" t="s">
-        <x:v>57</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E24" s="31" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F24" s="16"/>
-      <x:c r="G24" s="9"/>
+      <x:c r="G24" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H24" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I24" s="9"/>
       <x:c r="J24" s="5"/>
     </x:row>
-    <x:row r="25" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
+    <x:row r="25" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
       <x:c r="A25" s="15"/>
       <x:c r="B25" s="9" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="C25" s="9"/>
       <x:c r="D25" s="9" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="E25" s="30" t="s">
-        <x:v>85</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E25" s="29" t="s">
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F25" s="16"/>
-      <x:c r="G25" s="9"/>
+      <x:c r="G25" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H25" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I25" s="9"/>
       <x:c r="J25" s="5"/>
@@ -3279,19 +3315,21 @@
     <x:row r="26" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
       <x:c r="A26" s="15"/>
       <x:c r="B26" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C26" s="10"/>
       <x:c r="D26" s="9" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E26" s="30" t="s">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E26" s="29" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F26" s="16"/>
-      <x:c r="G26" s="9"/>
+      <x:c r="G26" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H26" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I26" s="9"/>
       <x:c r="J26" s="5"/>
@@ -3299,19 +3337,21 @@
     <x:row r="27" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A27" s="15"/>
       <x:c r="B27" s="9" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C27" s="10"/>
       <x:c r="D27" s="10" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E27" s="32" t="s">
-        <x:v>72</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E27" s="31" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F27" s="16"/>
-      <x:c r="G27" s="9"/>
+      <x:c r="G27" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H27" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I27" s="9"/>
       <x:c r="J27" s="5"/>
@@ -3319,99 +3359,101 @@
     <x:row r="28" spans="1:10" s="6" customFormat="1" ht="122.59999999999999">
       <x:c r="A28" s="15"/>
       <x:c r="B28" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C28" s="26"/>
       <x:c r="D28" s="10" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E28" s="32" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E28" s="31" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F28" s="16"/>
-      <x:c r="G28" s="9"/>
-      <x:c r="H28" s="9" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="G28" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H28" s="9"/>
       <x:c r="I28" s="9"/>
       <x:c r="J28" s="5"/>
     </x:row>
     <x:row r="29" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
       <x:c r="A29" s="17"/>
       <x:c r="B29" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C29" s="9"/>
       <x:c r="D29" s="9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E29" s="32" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E29" s="31" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F29" s="18"/>
-      <x:c r="G29" s="10"/>
-      <x:c r="H29" s="10" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="G29" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H29" s="10"/>
       <x:c r="I29" s="10"/>
       <x:c r="J29" s="7"/>
     </x:row>
     <x:row r="30" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
       <x:c r="A30" s="15"/>
       <x:c r="B30" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C30" s="10"/>
       <x:c r="D30" s="10" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="E30" s="32" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E30" s="31" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F30" s="16"/>
-      <x:c r="G30" s="9"/>
-      <x:c r="H30" s="9" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="G30" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H30" s="9"/>
       <x:c r="I30" s="9"/>
       <x:c r="J30" s="5"/>
     </x:row>
     <x:row r="31" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
       <x:c r="A31" s="15"/>
       <x:c r="B31" s="9" t="s">
-        <x:v>166</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C31" s="9"/>
       <x:c r="D31" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E31" s="32" t="s">
-        <x:v>74</x:v>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E31" s="31" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F31" s="16"/>
-      <x:c r="G31" s="9"/>
-      <x:c r="H31" s="9" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="G31" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H31" s="9"/>
       <x:c r="I31" s="9"/>
       <x:c r="J31" s="5"/>
     </x:row>
     <x:row r="32" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A32" s="15"/>
       <x:c r="B32" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C32" s="9"/>
       <x:c r="D32" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E32" s="30" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E32" s="29" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F32" s="16"/>
-      <x:c r="G32" s="9"/>
+      <x:c r="G32" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H32" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I32" s="9"/>
       <x:c r="J32" s="5"/>
@@ -3419,19 +3461,21 @@
     <x:row r="33" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
       <x:c r="A33" s="15"/>
       <x:c r="B33" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C33" s="9"/>
       <x:c r="D33" s="10" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E33" s="32" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E33" s="31" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F33" s="16"/>
-      <x:c r="G33" s="9"/>
+      <x:c r="G33" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H33" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I33" s="9"/>
       <x:c r="J33" s="5"/>
@@ -3439,19 +3483,21 @@
     <x:row r="34" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
       <x:c r="A34" s="15"/>
       <x:c r="B34" s="10" t="s">
-        <x:v>143</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C34" s="9"/>
       <x:c r="D34" s="9" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E34" s="30" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E34" s="29" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F34" s="16"/>
-      <x:c r="G34" s="9"/>
+      <x:c r="G34" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H34" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I34" s="9"/>
       <x:c r="J34" s="5"/>
@@ -3459,403 +3505,431 @@
     <x:row r="35" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A35" s="17"/>
       <x:c r="B35" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C35" s="9"/>
       <x:c r="D35" s="10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E35" s="32" t="s">
-        <x:v>71</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E35" s="31" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F35" s="18"/>
-      <x:c r="G35" s="10"/>
-      <x:c r="H35" s="10" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="G35" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H35" s="10"/>
       <x:c r="I35" s="10"/>
       <x:c r="J35" s="7"/>
     </x:row>
-    <x:row r="36" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A36" s="17"/>
-      <x:c r="B36" s="10" t="s">
-        <x:v>136</x:v>
+    <x:row r="36" spans="1:10" s="6" customFormat="1" ht="122.59999999999999">
+      <x:c r="A36" s="15"/>
+      <x:c r="B36" s="9" t="s">
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C36" s="9"/>
-      <x:c r="D36" s="9"/>
-      <x:c r="E36" s="30"/>
-      <x:c r="F36" s="18"/>
-      <x:c r="G36" s="10"/>
-      <x:c r="H36" s="10"/>
-      <x:c r="I36" s="10"/>
-      <x:c r="J36" s="7"/>
-    </x:row>
-    <x:row r="37" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A37" s="17"/>
-      <x:c r="B37" s="9" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C37" s="26"/>
-      <x:c r="D37" s="9"/>
-      <x:c r="E37" s="30"/>
-      <x:c r="F37" s="18"/>
-      <x:c r="G37" s="10"/>
-      <x:c r="H37" s="10"/>
-      <x:c r="I37" s="10"/>
-      <x:c r="J37" s="7"/>
-    </x:row>
-    <x:row r="38" spans="1:10" s="6" customFormat="1" ht="12.4">
+      <x:c r="D36" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E36" s="29" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F36" s="16"/>
+      <x:c r="G36" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H36" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I36" s="9"/>
+      <x:c r="J36" s="5"/>
+    </x:row>
+    <x:row r="37" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
+      <x:c r="A37" s="15"/>
+      <x:c r="B37" s="10" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C37" s="9"/>
+      <x:c r="D37" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E37" s="31" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F37" s="16"/>
+      <x:c r="G37" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H37" s="9"/>
+      <x:c r="I37" s="9"/>
+      <x:c r="J37" s="5"/>
+    </x:row>
+    <x:row r="38" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
       <x:c r="A38" s="15"/>
       <x:c r="B38" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="10"/>
-      <x:c r="D38" s="9"/>
-      <x:c r="E38" s="30"/>
+      <x:c r="D38" s="9" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E38" s="29" t="s">
+        <x:v>77</x:v>
+      </x:c>
       <x:c r="F38" s="16"/>
-      <x:c r="G38" s="9"/>
+      <x:c r="G38" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H38" s="9"/>
       <x:c r="I38" s="9"/>
       <x:c r="J38" s="5"/>
     </x:row>
-    <x:row r="39" spans="1:10" s="6" customFormat="1" ht="110.34999999999999">
-      <x:c r="A39" s="15"/>
+    <x:row r="39" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
+      <x:c r="A39" s="15" t="s">
+        <x:v>44</x:v>
+      </x:c>
       <x:c r="B39" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C39" s="9"/>
       <x:c r="D39" s="9" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E39" s="30" t="s">
-        <x:v>59</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E39" s="32" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F39" s="16"/>
-      <x:c r="G39" s="9"/>
+      <x:c r="G39" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="H39" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I39" s="9"/>
       <x:c r="J39" s="5"/>
     </x:row>
-    <x:row r="40" spans="1:10" s="6" customFormat="1" ht="12.4">
+    <x:row r="40" spans="1:10" s="6" customFormat="1" ht="232.94999999999999">
       <x:c r="A40" s="15"/>
       <x:c r="B40" s="10" t="s">
-        <x:v>104</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C40" s="9"/>
-      <x:c r="D40" s="10"/>
-      <x:c r="E40" s="32"/>
+      <x:c r="D40" s="9" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E40" s="32" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="F40" s="16"/>
-      <x:c r="G40" s="9"/>
+      <x:c r="G40" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H40" s="9"/>
       <x:c r="I40" s="9"/>
       <x:c r="J40" s="5"/>
     </x:row>
-    <x:row r="41" spans="1:10" s="6" customFormat="1" ht="12.4">
+    <x:row r="41" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A41" s="15"/>
-      <x:c r="B41" s="9" t="s">
-        <x:v>112</x:v>
+      <x:c r="B41" s="10" t="s">
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C41" s="9"/>
-      <x:c r="D41" s="10"/>
-      <x:c r="E41" s="32"/>
+      <x:c r="D41" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E41" s="29" t="s">
+        <x:v>71</x:v>
+      </x:c>
       <x:c r="F41" s="16"/>
-      <x:c r="G41" s="9"/>
+      <x:c r="G41" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H41" s="9"/>
       <x:c r="I41" s="9"/>
       <x:c r="J41" s="5"/>
     </x:row>
-    <x:row r="42" spans="1:10" s="6" customFormat="1" ht="12.4">
+    <x:row r="42" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A42" s="15"/>
-      <x:c r="B42" s="10" t="s">
-        <x:v>115</x:v>
+      <x:c r="B42" s="9" t="s">
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C42" s="9"/>
-      <x:c r="D42" s="9"/>
-      <x:c r="E42" s="30"/>
+      <x:c r="D42" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E42" s="31" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="F42" s="16"/>
-      <x:c r="G42" s="9"/>
+      <x:c r="G42" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H42" s="9"/>
       <x:c r="I42" s="9"/>
       <x:c r="J42" s="5"/>
     </x:row>
-    <x:row r="43" spans="1:10" s="6" customFormat="1" ht="12.4">
+    <x:row r="43" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
       <x:c r="A43" s="15"/>
-      <x:c r="B43" s="9" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C43" s="10"/>
-      <x:c r="D43" s="10"/>
-      <x:c r="E43" s="32"/>
+      <x:c r="B43" s="10" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C43" s="9"/>
+      <x:c r="D43" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E43" s="29" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="F43" s="16"/>
-      <x:c r="G43" s="9"/>
-      <x:c r="H43" s="9"/>
+      <x:c r="G43" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H43" s="9" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I43" s="9"/>
       <x:c r="J43" s="5"/>
     </x:row>
-    <x:row r="44" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
+    <x:row r="44" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
       <x:c r="A44" s="15"/>
-      <x:c r="B44" s="10" t="s">
-        <x:v>164</x:v>
+      <x:c r="B44" s="9" t="s">
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C44" s="9"/>
-      <x:c r="D44" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E44" s="32" t="s">
-        <x:v>66</x:v>
+      <x:c r="D44" s="26" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E44" s="29" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="16"/>
-      <x:c r="G44" s="9"/>
+      <x:c r="G44" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H44" s="9"/>
       <x:c r="I44" s="9"/>
       <x:c r="J44" s="5"/>
     </x:row>
-    <x:row r="45" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A45" s="17"/>
-      <x:c r="B45" s="9" t="s">
-        <x:v>168</x:v>
+    <x:row r="45" spans="1:10" s="6" customFormat="1" ht="73.599999999999994">
+      <x:c r="A45" s="15"/>
+      <x:c r="B45" s="10" t="s">
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C45" s="9"/>
-      <x:c r="D45" s="9"/>
-      <x:c r="E45" s="30"/>
-      <x:c r="F45" s="18"/>
-      <x:c r="G45" s="10"/>
-      <x:c r="H45" s="10"/>
-      <x:c r="I45" s="10"/>
-      <x:c r="J45" s="7"/>
-    </x:row>
-    <x:row r="46" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
+      <x:c r="D45" s="36" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E45" s="29" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F45" s="16"/>
+      <x:c r="G45" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H45" s="9"/>
+      <x:c r="I45" s="9"/>
+      <x:c r="J45" s="5"/>
+    </x:row>
+    <x:row r="46" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
       <x:c r="A46" s="15"/>
-      <x:c r="B46" s="10" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C46" s="10"/>
+      <x:c r="B46" s="9" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C46" s="9"/>
       <x:c r="D46" s="9" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="E46" s="30" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E46" s="29" t="s">
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F46" s="16"/>
-      <x:c r="G46" s="9"/>
-      <x:c r="H46" s="9" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="G46" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H46" s="9"/>
       <x:c r="I46" s="9"/>
       <x:c r="J46" s="5"/>
     </x:row>
     <x:row r="47" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
-      <x:c r="A47" s="15" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B47" s="9" t="s">
-        <x:v>140</x:v>
+      <x:c r="A47" s="17"/>
+      <x:c r="B47" s="10" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C47" s="9"/>
-      <x:c r="D47" s="9" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E47" s="33" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F47" s="16"/>
-      <x:c r="G47" s="9"/>
-      <x:c r="H47" s="9"/>
-      <x:c r="I47" s="9"/>
-      <x:c r="J47" s="5"/>
-    </x:row>
-    <x:row r="48" spans="1:10" s="6" customFormat="1" ht="232.94999999999999">
+      <x:c r="D47" s="36" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E47" s="29" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F47" s="18"/>
+      <x:c r="G47" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H47" s="10"/>
+      <x:c r="I47" s="10"/>
+      <x:c r="J47" s="7"/>
+    </x:row>
+    <x:row r="48" spans="1:10" s="6" customFormat="1" ht="85.849999999999994">
       <x:c r="A48" s="15"/>
-      <x:c r="B48" s="10" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C48" s="9"/>
-      <x:c r="D48" s="9" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="E48" s="33" t="s">
-        <x:v>22</x:v>
+      <x:c r="B48" s="9" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C48" s="10"/>
+      <x:c r="D48" s="36" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E48" s="32" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F48" s="16"/>
-      <x:c r="G48" s="9"/>
+      <x:c r="G48" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H48" s="9"/>
       <x:c r="I48" s="9"/>
       <x:c r="J48" s="5"/>
     </x:row>
-    <x:row r="49" spans="1:10" s="6" customFormat="1" ht="12.4">
+    <x:row r="49" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
       <x:c r="A49" s="15"/>
-      <x:c r="B49" s="9" t="s">
-        <x:v>119</x:v>
+      <x:c r="B49" s="10" t="s">
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C49" s="9"/>
-      <x:c r="D49" s="9"/>
-      <x:c r="E49" s="30"/>
+      <x:c r="D49" s="36" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E49" s="29" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="F49" s="16"/>
-      <x:c r="G49" s="9"/>
+      <x:c r="G49" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H49" s="9"/>
       <x:c r="I49" s="9"/>
       <x:c r="J49" s="5"/>
     </x:row>
-    <x:row r="50" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
+    <x:row r="50" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A50" s="15"/>
-      <x:c r="B50" s="10" t="s">
-        <x:v>123</x:v>
+      <x:c r="B50" s="9" t="s">
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C50" s="9"/>
-      <x:c r="D50" s="9" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E50" s="30" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D50" s="36"/>
+      <x:c r="E50" s="32"/>
       <x:c r="F50" s="16"/>
       <x:c r="G50" s="9"/>
       <x:c r="H50" s="9"/>
       <x:c r="I50" s="9"/>
       <x:c r="J50" s="5"/>
     </x:row>
-    <x:row r="51" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
-      <x:c r="A51" s="15"/>
+    <x:row r="51" spans="1:10" s="6" customFormat="1" ht="12.4">
+      <x:c r="A51" s="17"/>
       <x:c r="B51" s="9" t="s">
-        <x:v>146</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C51" s="9"/>
-      <x:c r="D51" s="10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E51" s="32" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F51" s="16"/>
-      <x:c r="G51" s="9"/>
-      <x:c r="H51" s="9"/>
-      <x:c r="I51" s="9"/>
-      <x:c r="J51" s="5"/>
-    </x:row>
-    <x:row r="52" spans="1:10" s="6" customFormat="1" ht="36.799999999999997">
+      <x:c r="D51" s="9"/>
+      <x:c r="E51" s="29"/>
+      <x:c r="F51" s="18"/>
+      <x:c r="G51" s="10"/>
+      <x:c r="H51" s="10"/>
+      <x:c r="I51" s="10"/>
+      <x:c r="J51" s="7"/>
+    </x:row>
+    <x:row r="52" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A52" s="15"/>
       <x:c r="B52" s="10" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C52" s="9"/>
-      <x:c r="D52" s="9" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E52" s="30" t="s">
-        <x:v>82</x:v>
-      </x:c>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C52" s="10"/>
+      <x:c r="D52" s="9"/>
+      <x:c r="E52" s="29"/>
       <x:c r="F52" s="16"/>
       <x:c r="G52" s="9"/>
-      <x:c r="H52" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="H52" s="9"/>
       <x:c r="I52" s="9"/>
       <x:c r="J52" s="5"/>
     </x:row>
-    <x:row r="53" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
+    <x:row r="53" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A53" s="15"/>
       <x:c r="B53" s="9" t="s">
-        <x:v>165</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C53" s="9"/>
-      <x:c r="D53" s="26" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E53" s="30" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="D53" s="10"/>
+      <x:c r="E53" s="31"/>
       <x:c r="F53" s="16"/>
       <x:c r="G53" s="9"/>
       <x:c r="H53" s="9"/>
       <x:c r="I53" s="9"/>
       <x:c r="J53" s="5"/>
     </x:row>
-    <x:row r="54" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
+    <x:row r="54" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A54" s="15"/>
       <x:c r="B54" s="10" t="s">
-        <x:v>169</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C54" s="9"/>
-      <x:c r="D54" s="37" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E54" s="30" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D54" s="9"/>
+      <x:c r="E54" s="29"/>
       <x:c r="F54" s="16"/>
       <x:c r="G54" s="9"/>
       <x:c r="H54" s="9"/>
       <x:c r="I54" s="9"/>
       <x:c r="J54" s="5"/>
     </x:row>
-    <x:row r="55" spans="1:10" s="6" customFormat="1" ht="49.049999999999997">
+    <x:row r="55" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A55" s="15"/>
       <x:c r="B55" s="9" t="s">
-        <x:v>180</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C55" s="9"/>
-      <x:c r="D55" s="9" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E55" s="30" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="D55" s="9"/>
+      <x:c r="E55" s="29"/>
       <x:c r="F55" s="16"/>
       <x:c r="G55" s="9"/>
       <x:c r="H55" s="9"/>
       <x:c r="I55" s="9"/>
       <x:c r="J55" s="5"/>
     </x:row>
-    <x:row r="56" spans="1:10" s="6" customFormat="1" ht="24.550000000000001">
-      <x:c r="A56" s="17"/>
+    <x:row r="56" spans="1:10" s="6" customFormat="1" ht="12.4">
+      <x:c r="A56" s="15"/>
       <x:c r="B56" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C56" s="9"/>
-      <x:c r="D56" s="37" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E56" s="30" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F56" s="18"/>
-      <x:c r="G56" s="10"/>
-      <x:c r="H56" s="10"/>
-      <x:c r="I56" s="10"/>
-      <x:c r="J56" s="7"/>
-    </x:row>
-    <x:row r="57" spans="1:10" s="6" customFormat="1" ht="85.849999999999994">
+      <x:c r="D56" s="9"/>
+      <x:c r="E56" s="29"/>
+      <x:c r="F56" s="16"/>
+      <x:c r="G56" s="9"/>
+      <x:c r="H56" s="9"/>
+      <x:c r="I56" s="9"/>
+      <x:c r="J56" s="5"/>
+    </x:row>
+    <x:row r="57" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A57" s="15"/>
       <x:c r="B57" s="9" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C57" s="10"/>
-      <x:c r="D57" s="37" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="E57" s="33" t="s">
-        <x:v>87</x:v>
-      </x:c>
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C57" s="9"/>
+      <x:c r="D57" s="10"/>
+      <x:c r="E57" s="31"/>
       <x:c r="F57" s="16"/>
       <x:c r="G57" s="9"/>
       <x:c r="H57" s="9"/>
       <x:c r="I57" s="9"/>
       <x:c r="J57" s="5"/>
     </x:row>
-    <x:row r="58" spans="1:10" s="6" customFormat="1" ht="61.299999999999997">
+    <x:row r="58" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A58" s="15"/>
       <x:c r="B58" s="10" t="s">
-        <x:v>175</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C58" s="9"/>
-      <x:c r="D58" s="37" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="E58" s="30" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="D58" s="9"/>
+      <x:c r="E58" s="29"/>
       <x:c r="F58" s="16"/>
       <x:c r="G58" s="9"/>
       <x:c r="H58" s="9"/>
@@ -3865,11 +3939,11 @@
     <x:row r="59" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A59" s="15"/>
       <x:c r="B59" s="9" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C59" s="9"/>
-      <x:c r="D59" s="37"/>
-      <x:c r="E59" s="33"/>
+      <x:c r="D59" s="9"/>
+      <x:c r="E59" s="29"/>
       <x:c r="F59" s="16"/>
       <x:c r="G59" s="9"/>
       <x:c r="H59" s="9"/>
@@ -3877,27 +3951,27 @@
       <x:c r="J59" s="5"/>
     </x:row>
     <x:row r="60" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A60" s="17"/>
-      <x:c r="B60" s="9" t="s">
-        <x:v>160</x:v>
+      <x:c r="A60" s="15"/>
+      <x:c r="B60" s="10" t="s">
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C60" s="9"/>
       <x:c r="D60" s="9"/>
-      <x:c r="E60" s="30"/>
-      <x:c r="F60" s="18"/>
-      <x:c r="G60" s="10"/>
-      <x:c r="H60" s="10"/>
-      <x:c r="I60" s="10"/>
-      <x:c r="J60" s="7"/>
+      <x:c r="E60" s="29"/>
+      <x:c r="F60" s="16"/>
+      <x:c r="G60" s="9"/>
+      <x:c r="H60" s="9"/>
+      <x:c r="I60" s="9"/>
+      <x:c r="J60" s="5"/>
     </x:row>
     <x:row r="61" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A61" s="15"/>
-      <x:c r="B61" s="10" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="C61" s="10"/>
+      <x:c r="B61" s="9" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C61" s="9"/>
       <x:c r="D61" s="9"/>
-      <x:c r="E61" s="30"/>
+      <x:c r="E61" s="29"/>
       <x:c r="F61" s="16"/>
       <x:c r="G61" s="9"/>
       <x:c r="H61" s="9"/>
@@ -3906,12 +3980,12 @@
     </x:row>
     <x:row r="62" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A62" s="15"/>
-      <x:c r="B62" s="9" t="s">
-        <x:v>172</x:v>
+      <x:c r="B62" s="10" t="s">
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C62" s="9"/>
-      <x:c r="D62" s="10"/>
-      <x:c r="E62" s="32"/>
+      <x:c r="D62" s="9"/>
+      <x:c r="E62" s="29"/>
       <x:c r="F62" s="16"/>
       <x:c r="G62" s="9"/>
       <x:c r="H62" s="9"/>
@@ -3920,12 +3994,12 @@
     </x:row>
     <x:row r="63" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A63" s="15"/>
-      <x:c r="B63" s="10" t="s">
-        <x:v>167</x:v>
+      <x:c r="B63" s="9" t="s">
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C63" s="9"/>
       <x:c r="D63" s="9"/>
-      <x:c r="E63" s="30"/>
+      <x:c r="E63" s="29"/>
       <x:c r="F63" s="16"/>
       <x:c r="G63" s="9"/>
       <x:c r="H63" s="9"/>
@@ -3934,12 +4008,12 @@
     </x:row>
     <x:row r="64" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A64" s="15"/>
-      <x:c r="B64" s="9" t="s">
-        <x:v>157</x:v>
+      <x:c r="B64" s="10" t="s">
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C64" s="9"/>
       <x:c r="D64" s="9"/>
-      <x:c r="E64" s="30"/>
+      <x:c r="E64" s="29"/>
       <x:c r="F64" s="16"/>
       <x:c r="G64" s="9"/>
       <x:c r="H64" s="9"/>
@@ -3948,12 +4022,12 @@
     </x:row>
     <x:row r="65" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A65" s="15"/>
-      <x:c r="B65" s="10" t="s">
-        <x:v>149</x:v>
+      <x:c r="B65" s="9" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C65" s="9"/>
       <x:c r="D65" s="9"/>
-      <x:c r="E65" s="30"/>
+      <x:c r="E65" s="29"/>
       <x:c r="F65" s="16"/>
       <x:c r="G65" s="9"/>
       <x:c r="H65" s="9"/>
@@ -3962,12 +4036,12 @@
     </x:row>
     <x:row r="66" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A66" s="15"/>
-      <x:c r="B66" s="9" t="s">
-        <x:v>134</x:v>
+      <x:c r="B66" s="10" t="s">
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C66" s="9"/>
-      <x:c r="D66" s="10"/>
-      <x:c r="E66" s="32"/>
+      <x:c r="D66" s="9"/>
+      <x:c r="E66" s="29"/>
       <x:c r="F66" s="16"/>
       <x:c r="G66" s="9"/>
       <x:c r="H66" s="9"/>
@@ -3976,12 +4050,12 @@
     </x:row>
     <x:row r="67" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A67" s="15"/>
-      <x:c r="B67" s="10" t="s">
-        <x:v>148</x:v>
+      <x:c r="B67" s="9" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C67" s="9"/>
       <x:c r="D67" s="9"/>
-      <x:c r="E67" s="30"/>
+      <x:c r="E67" s="29"/>
       <x:c r="F67" s="16"/>
       <x:c r="G67" s="9"/>
       <x:c r="H67" s="9"/>
@@ -3990,12 +4064,12 @@
     </x:row>
     <x:row r="68" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A68" s="15"/>
-      <x:c r="B68" s="9" t="s">
-        <x:v>176</x:v>
+      <x:c r="B68" s="10" t="s">
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C68" s="9"/>
       <x:c r="D68" s="9"/>
-      <x:c r="E68" s="30"/>
+      <x:c r="E68" s="29"/>
       <x:c r="F68" s="16"/>
       <x:c r="G68" s="9"/>
       <x:c r="H68" s="9"/>
@@ -4003,27 +4077,27 @@
       <x:c r="J68" s="5"/>
     </x:row>
     <x:row r="69" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A69" s="15"/>
-      <x:c r="B69" s="10" t="s">
-        <x:v>151</x:v>
+      <x:c r="A69" s="17"/>
+      <x:c r="B69" s="9" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C69" s="9"/>
       <x:c r="D69" s="9"/>
-      <x:c r="E69" s="30"/>
-      <x:c r="F69" s="16"/>
-      <x:c r="G69" s="9"/>
-      <x:c r="H69" s="9"/>
-      <x:c r="I69" s="9"/>
-      <x:c r="J69" s="5"/>
+      <x:c r="E69" s="29"/>
+      <x:c r="F69" s="18"/>
+      <x:c r="G69" s="10"/>
+      <x:c r="H69" s="10"/>
+      <x:c r="I69" s="10"/>
+      <x:c r="J69" s="7"/>
     </x:row>
     <x:row r="70" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A70" s="15"/>
-      <x:c r="B70" s="9" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C70" s="9"/>
+      <x:c r="B70" s="10" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C70" s="10"/>
       <x:c r="D70" s="9"/>
-      <x:c r="E70" s="30"/>
+      <x:c r="E70" s="29"/>
       <x:c r="F70" s="16"/>
       <x:c r="G70" s="9"/>
       <x:c r="H70" s="9"/>
@@ -4032,12 +4106,12 @@
     </x:row>
     <x:row r="71" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A71" s="15"/>
-      <x:c r="B71" s="10" t="s">
-        <x:v>153</x:v>
+      <x:c r="B71" s="9" t="s">
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C71" s="9"/>
       <x:c r="D71" s="9"/>
-      <x:c r="E71" s="30"/>
+      <x:c r="E71" s="29"/>
       <x:c r="F71" s="16"/>
       <x:c r="G71" s="9"/>
       <x:c r="H71" s="9"/>
@@ -4046,12 +4120,12 @@
     </x:row>
     <x:row r="72" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A72" s="15"/>
-      <x:c r="B72" s="9" t="s">
-        <x:v>128</x:v>
+      <x:c r="B72" s="10" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C72" s="9"/>
       <x:c r="D72" s="9"/>
-      <x:c r="E72" s="30"/>
+      <x:c r="E72" s="29"/>
       <x:c r="F72" s="16"/>
       <x:c r="G72" s="9"/>
       <x:c r="H72" s="9"/>
@@ -4060,203 +4134,77 @@
     </x:row>
     <x:row r="73" spans="1:10" s="6" customFormat="1" ht="12.4">
       <x:c r="A73" s="15"/>
-      <x:c r="B73" s="10" t="s">
-        <x:v>145</x:v>
+      <x:c r="B73" s="9" t="s">
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C73" s="9"/>
       <x:c r="D73" s="9"/>
-      <x:c r="E73" s="30"/>
+      <x:c r="E73" s="32"/>
       <x:c r="F73" s="16"/>
       <x:c r="G73" s="9"/>
       <x:c r="H73" s="9"/>
       <x:c r="I73" s="9"/>
-      <x:c r="J73" s="5"/>
-    </x:row>
-    <x:row r="74" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A74" s="15"/>
-      <x:c r="B74" s="9" t="s">
-        <x:v>121</x:v>
-      </x:c>
+      <x:c r="J73" s="4"/>
+    </x:row>
+    <x:row r="74" spans="1:10" s="6" customFormat="1" ht="1.5" customHeight="1">
+      <x:c r="A74" s="5"/>
+      <x:c r="B74" s="11"/>
       <x:c r="C74" s="9"/>
       <x:c r="D74" s="9"/>
-      <x:c r="E74" s="30"/>
-      <x:c r="F74" s="16"/>
-      <x:c r="G74" s="9"/>
-      <x:c r="H74" s="9"/>
-      <x:c r="I74" s="9"/>
+      <x:c r="E74" s="29"/>
+      <x:c r="F74" s="8"/>
+      <x:c r="G74" s="8"/>
+      <x:c r="H74" s="8"/>
+      <x:c r="I74" s="8"/>
       <x:c r="J74" s="5"/>
     </x:row>
-    <x:row r="75" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A75" s="15"/>
-      <x:c r="B75" s="10" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="C75" s="9"/>
-      <x:c r="D75" s="9"/>
-      <x:c r="E75" s="30"/>
-      <x:c r="F75" s="16"/>
-      <x:c r="G75" s="9"/>
-      <x:c r="H75" s="9"/>
-      <x:c r="I75" s="9"/>
-      <x:c r="J75" s="5"/>
-    </x:row>
-    <x:row r="76" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A76" s="15"/>
-      <x:c r="B76" s="9" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C76" s="9"/>
+    <x:row r="75" spans="2:9" s="6" customFormat="1" customHeight="1">
+      <x:c r="B75" s="11"/>
+      <x:c r="C75" s="20"/>
+      <x:c r="D75" s="10"/>
+      <x:c r="E75" s="31"/>
+      <x:c r="F75" s="11"/>
+      <x:c r="G75" s="11"/>
+      <x:c r="H75" s="11"/>
+      <x:c r="I75" s="11"/>
+    </x:row>
+    <x:row r="76" spans="2:9" customHeight="1">
+      <x:c r="B76" s="12"/>
+      <x:c r="C76" s="20"/>
       <x:c r="D76" s="9"/>
-      <x:c r="E76" s="30"/>
-      <x:c r="F76" s="16"/>
-      <x:c r="G76" s="9"/>
-      <x:c r="H76" s="9"/>
-      <x:c r="I76" s="9"/>
-      <x:c r="J76" s="5"/>
-    </x:row>
-    <x:row r="77" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A77" s="15"/>
-      <x:c r="B77" s="10" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C77" s="9"/>
+      <x:c r="E76" s="32"/>
+      <x:c r="F76" s="12"/>
+      <x:c r="G76" s="12"/>
+      <x:c r="H76" s="12"/>
+      <x:c r="I76" s="12"/>
+    </x:row>
+    <x:row r="77" spans="3:5" customHeight="1">
+      <x:c r="C77" s="21"/>
       <x:c r="D77" s="9"/>
-      <x:c r="E77" s="30"/>
-      <x:c r="F77" s="16"/>
-      <x:c r="G77" s="9"/>
-      <x:c r="H77" s="9"/>
-      <x:c r="I77" s="9"/>
-      <x:c r="J77" s="5"/>
-    </x:row>
-    <x:row r="78" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A78" s="17"/>
-      <x:c r="B78" s="9" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C78" s="9"/>
+      <x:c r="E77" s="32"/>
+    </x:row>
+    <x:row r="78" spans="4:5" customHeight="1">
       <x:c r="D78" s="9"/>
-      <x:c r="E78" s="30"/>
-      <x:c r="F78" s="18"/>
-      <x:c r="G78" s="10"/>
-      <x:c r="H78" s="10"/>
-      <x:c r="I78" s="10"/>
-      <x:c r="J78" s="7"/>
-    </x:row>
-    <x:row r="79" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A79" s="15"/>
-      <x:c r="B79" s="10" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="C79" s="10"/>
+      <x:c r="E78" s="32"/>
+    </x:row>
+    <x:row r="79" spans="4:5" customHeight="1">
       <x:c r="D79" s="9"/>
-      <x:c r="E79" s="30"/>
-      <x:c r="F79" s="16"/>
-      <x:c r="G79" s="9"/>
-      <x:c r="H79" s="9"/>
-      <x:c r="I79" s="9"/>
-      <x:c r="J79" s="5"/>
-    </x:row>
-    <x:row r="80" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A80" s="15"/>
-      <x:c r="B80" s="9" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C80" s="9"/>
-      <x:c r="D80" s="9"/>
-      <x:c r="E80" s="30"/>
-      <x:c r="F80" s="16"/>
-      <x:c r="G80" s="9"/>
-      <x:c r="H80" s="9"/>
-      <x:c r="I80" s="9"/>
-      <x:c r="J80" s="5"/>
-    </x:row>
-    <x:row r="81" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A81" s="15"/>
-      <x:c r="B81" s="10" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C81" s="9"/>
-      <x:c r="D81" s="9"/>
-      <x:c r="E81" s="30"/>
-      <x:c r="F81" s="16"/>
-      <x:c r="G81" s="9"/>
-      <x:c r="H81" s="9"/>
-      <x:c r="I81" s="9"/>
-      <x:c r="J81" s="5"/>
-    </x:row>
-    <x:row r="82" spans="1:10" s="6" customFormat="1" ht="12.4">
-      <x:c r="A82" s="15"/>
-      <x:c r="B82" s="9" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C82" s="9"/>
-      <x:c r="D82" s="9"/>
-      <x:c r="E82" s="33"/>
-      <x:c r="F82" s="16"/>
-      <x:c r="G82" s="9"/>
-      <x:c r="H82" s="9"/>
-      <x:c r="I82" s="9"/>
-      <x:c r="J82" s="4"/>
-    </x:row>
-    <x:row r="83" spans="1:10" s="6" customFormat="1" ht="1.5" customHeight="1">
-      <x:c r="A83" s="5"/>
-      <x:c r="B83" s="11"/>
-      <x:c r="C83" s="9"/>
-      <x:c r="D83" s="9"/>
-      <x:c r="E83" s="30"/>
-      <x:c r="F83" s="8"/>
-      <x:c r="G83" s="8"/>
-      <x:c r="H83" s="8"/>
-      <x:c r="I83" s="8"/>
-      <x:c r="J83" s="5"/>
-    </x:row>
-    <x:row r="84" spans="2:9" s="6" customFormat="1" customHeight="1">
-      <x:c r="B84" s="11"/>
-      <x:c r="C84" s="20"/>
-      <x:c r="D84" s="10"/>
-      <x:c r="E84" s="32"/>
-      <x:c r="F84" s="11"/>
-      <x:c r="G84" s="11"/>
-      <x:c r="H84" s="11"/>
-      <x:c r="I84" s="11"/>
-    </x:row>
-    <x:row r="85" spans="2:9" customHeight="1">
-      <x:c r="B85" s="12"/>
-      <x:c r="C85" s="20"/>
-      <x:c r="D85" s="9"/>
-      <x:c r="E85" s="33"/>
-      <x:c r="F85" s="12"/>
-      <x:c r="G85" s="12"/>
-      <x:c r="H85" s="12"/>
-      <x:c r="I85" s="12"/>
-    </x:row>
-    <x:row r="86" spans="3:5" customHeight="1">
-      <x:c r="C86" s="21"/>
-      <x:c r="D86" s="9"/>
-      <x:c r="E86" s="33"/>
-    </x:row>
-    <x:row r="87" spans="4:5" customHeight="1">
-      <x:c r="D87" s="9"/>
-      <x:c r="E87" s="33"/>
-    </x:row>
-    <x:row r="88" spans="4:5" customHeight="1">
-      <x:c r="D88" s="9"/>
-      <x:c r="E88" s="19"/>
-    </x:row>
-    <x:row r="89" spans="4:5" customHeight="1">
-      <x:c r="D89" s="23"/>
-      <x:c r="E89" s="34"/>
-    </x:row>
-    <x:row r="90" spans="4:5" customHeight="1">
-      <x:c r="D90" s="23"/>
-      <x:c r="E90" s="35"/>
-    </x:row>
-    <x:row r="91" spans="4:5" customHeight="1">
-      <x:c r="D91" s="24"/>
-      <x:c r="E91" s="36"/>
+      <x:c r="E79" s="19"/>
+    </x:row>
+    <x:row r="80" spans="4:5" customHeight="1">
+      <x:c r="D80" s="23"/>
+      <x:c r="E80" s="33"/>
+    </x:row>
+    <x:row r="81" spans="4:5" customHeight="1">
+      <x:c r="D81" s="23"/>
+      <x:c r="E81" s="34"/>
+    </x:row>
+    <x:row r="82" spans="4:5" customHeight="1">
+      <x:c r="D82" s="24"/>
+      <x:c r="E82" s="35"/>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="B2:I82">
+  <x:autoFilter ref="B2:I73">
     <x:sortState columnSort="0" caseSensitive="0" ref="B2:I81">
       <x:sortCondition descending="0" sortBy="value" ref="B2:B81"/>
       <x:sortCondition descending="0" sortBy="value" ref="F2:F81"/>
